--- a/tables/OBIA_vs_SMA.xlsx
+++ b/tables/OBIA_vs_SMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uss\RS\CASA0023_Diary\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E2DA05-75BA-4FF6-9D93-A11495996644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E9DCA9-B2F7-4BCB-BC4B-61A54B845DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{DF2417B3-A15D-4867-89F2-659CEC6461DB}"/>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="15540" windowHeight="13220" xr2:uid="{DF2417B3-A15D-4867-89F2-659CEC6461DB}"/>
   </bookViews>
   <sheets>
     <sheet name="OBIA_vs_SMA" sheetId="1" r:id="rId1"/>
@@ -31,15 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Criteria</t>
   </si>
   <si>
     <t>Object-Based Image Analysis (OBIA)</t>
-  </si>
-  <si>
-    <t>Spectral Mixture Analysis (SMA)</t>
   </si>
   <si>
     <t>Basic Unit</t>
@@ -130,6 +127,14 @@
   </si>
   <si>
     <t xml:space="preserve"> Land Cover Fractions: V-I-S model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub-pixel Analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1090,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1101,114 +1106,117 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
